--- a/test_files/estimation_tests/3-genes_3-edges_artificial-data_Sigmoid_estimation_1_output.xlsx
+++ b/test_files/estimation_tests/3-genes_3-edges_artificial-data_Sigmoid_estimation_1_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20610" windowHeight="11640" tabRatio="644" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20610" windowHeight="11640" tabRatio="644" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
   <si>
     <t>alpha</t>
   </si>
@@ -35,27 +35,12 @@
     <t>kk_max</t>
   </si>
   <si>
-    <t>SystematicName</t>
-  </si>
-  <si>
-    <t>StandardName</t>
-  </si>
-  <si>
-    <t>DegradationRate</t>
-  </si>
-  <si>
-    <t>rows genes affected/cols genes controlling</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
     <t>optimization_parameter</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>MaxIter</t>
   </si>
   <si>
@@ -68,9 +53,6 @@
     <t>TolX</t>
   </si>
   <si>
-    <t>production_rates</t>
-  </si>
-  <si>
     <t>Strain</t>
   </si>
   <si>
@@ -92,37 +74,43 @@
     <t>Sigmoid</t>
   </si>
   <si>
-    <t>simtime</t>
-  </si>
-  <si>
-    <t>sysGene1</t>
-  </si>
-  <si>
     <t>QT1</t>
   </si>
   <si>
-    <t>sysGene2</t>
-  </si>
-  <si>
     <t>SMRT1</t>
   </si>
   <si>
-    <t>sysGene3</t>
-  </si>
-  <si>
     <t>WRD2</t>
   </si>
   <si>
-    <t>prorate</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>estimateParams</t>
-  </si>
-  <si>
-    <t>makeGraphs</t>
+    <t>targets/regulators</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>threshold_b</t>
+  </si>
+  <si>
+    <t>production_rate</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>estimate_params</t>
+  </si>
+  <si>
+    <t>make_graphs</t>
+  </si>
+  <si>
+    <t>expression_timepoints</t>
+  </si>
+  <si>
+    <t>simulation_timepoints</t>
+  </si>
+  <si>
+    <t>degradation_rate</t>
   </si>
 </sst>
 </file>
@@ -549,183 +537,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4">
         <v>1.6</v>
       </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="4">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="5"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" s="4"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
-      <c r="H22"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E24" s="5"/>
+      <c r="G22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -737,55 +694,43 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
     </row>
@@ -798,29 +743,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>1.1766554941657421E-7</v>
@@ -834,7 +777,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -848,7 +791,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -867,153 +810,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="B2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="4">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1025,20 +937,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="B1" s="7">
+        <v>5</v>
       </c>
       <c r="C1" s="7">
         <v>5</v>
@@ -1050,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G1" s="7">
         <v>10</v>
@@ -1062,7 +974,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K1" s="7">
         <v>20</v>
@@ -1076,16 +988,13 @@
       <c r="N1" s="7">
         <v>20</v>
       </c>
-      <c r="O1" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1123,16 +1032,13 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1170,16 +1076,13 @@
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1217,40 +1120,37 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G6" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J10" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G12" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I14" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="I18" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="F20" s="2"/>
-      <c r="M20" s="2"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1263,9 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1291,21 +1189,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1319,7 +1217,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -1333,7 +1231,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -1357,9 +1255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1384,16 +1280,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1416,7 +1312,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4">
         <v>0.1</v>
@@ -1430,7 +1326,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -1444,7 +1340,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -1468,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1479,22 +1375,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1515,7 +1411,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>1000000</v>
@@ -1523,7 +1419,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
@@ -1531,7 +1427,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>1000000</v>
@@ -1539,7 +1435,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>1.0000000000000001E-5</v>
@@ -1547,15 +1443,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -1563,7 +1459,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -1571,7 +1467,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B11" s="9">
         <v>1</v>
@@ -1579,7 +1475,7 @@
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B12" s="9">
         <v>1</v>
@@ -1587,7 +1483,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B13" s="9">
         <v>5</v>
@@ -1601,15 +1497,15 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8">
         <v>3</v>
@@ -1617,7 +1513,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B16" s="8">
         <v>0</v>
@@ -1625,7 +1521,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1704,19 +1600,25 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1724,7 +1626,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1732,7 +1634,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1752,295 +1654,281 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:W4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1">
         <v>3</v>
       </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
       <c r="F1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="S1">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>3.3396300946897384E-8</v>
+      </c>
+      <c r="D2">
+        <v>5.3707342684283788E-8</v>
+      </c>
+      <c r="E2">
+        <v>6.5915418567819017E-8</v>
+      </c>
+      <c r="F2">
+        <v>7.3396652422452746E-8</v>
+      </c>
+      <c r="G2">
+        <v>7.7893294037068017E-8</v>
+      </c>
+      <c r="H2">
+        <v>8.0648882017086976E-8</v>
+      </c>
+      <c r="I2">
+        <v>8.2305144921690498E-8</v>
+      </c>
+      <c r="J2">
+        <v>8.3320119914631618E-8</v>
+      </c>
+      <c r="K2">
+        <v>8.3930176919544408E-8</v>
+      </c>
+      <c r="L2">
+        <v>8.4304025871340116E-8</v>
+      </c>
+      <c r="M2">
+        <v>8.4528730237565242E-8</v>
+      </c>
+      <c r="N2">
+        <v>8.4666431421354105E-8</v>
+      </c>
+      <c r="O2">
+        <v>8.4749197437616886E-8</v>
+      </c>
+      <c r="P2">
+        <v>8.4799917310363071E-8</v>
+      </c>
+      <c r="Q2">
+        <v>8.4830402702351648E-8</v>
+      </c>
+      <c r="R2">
+        <v>8.4849084758253923E-8</v>
+      </c>
+      <c r="S2">
+        <v>8.486031344290268E-8</v>
+      </c>
+      <c r="T2">
+        <v>8.4867194716231609E-8</v>
+      </c>
+      <c r="U2">
+        <v>8.4871330630065245E-8</v>
+      </c>
+      <c r="V2">
+        <v>8.4873858163803106E-8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="T1">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>-9.031835694723031E-9</v>
+      </c>
+      <c r="D3">
+        <v>-1.3202879149628711E-8</v>
+      </c>
+      <c r="E3">
+        <v>-1.4849249624547499E-8</v>
+      </c>
+      <c r="F3">
+        <v>-1.5729259244796096E-8</v>
+      </c>
+      <c r="G3">
+        <v>-1.6076611749744722E-8</v>
+      </c>
+      <c r="H3">
+        <v>-1.626227674599035E-8</v>
+      </c>
+      <c r="I3">
+        <v>-1.6335561374774734E-8</v>
+      </c>
+      <c r="J3">
+        <v>-1.6374733194850106E-8</v>
+      </c>
+      <c r="K3">
+        <v>-1.6390194533046339E-8</v>
+      </c>
+      <c r="L3">
+        <v>-1.6398459053177446E-8</v>
+      </c>
+      <c r="M3">
+        <v>-1.640172126259469E-8</v>
+      </c>
+      <c r="N3">
+        <v>-1.6403465047831869E-8</v>
+      </c>
+      <c r="O3">
+        <v>-1.6404153143852712E-8</v>
+      </c>
+      <c r="P3">
+        <v>-1.6404521057390856E-8</v>
+      </c>
+      <c r="Q3">
+        <v>-1.6404666332784458E-8</v>
+      </c>
+      <c r="R3">
+        <v>-1.6404743855706731E-8</v>
+      </c>
+      <c r="S3">
+        <v>-1.6404774608601518E-8</v>
+      </c>
+      <c r="T3">
+        <v>-1.6404790785905547E-8</v>
+      </c>
+      <c r="U3">
+        <v>-1.6404797352929954E-8</v>
+      </c>
+      <c r="V3">
+        <v>-1.6404800556356495E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="U1">
-        <v>18</v>
-      </c>
-      <c r="V1">
-        <v>19</v>
-      </c>
-      <c r="W1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>3.3396300946897384E-8</v>
-      </c>
-      <c r="E2">
-        <v>5.3707342684283788E-8</v>
-      </c>
-      <c r="F2">
-        <v>6.5915418567819017E-8</v>
-      </c>
-      <c r="G2">
-        <v>7.3396652422452746E-8</v>
-      </c>
-      <c r="H2">
-        <v>7.7893294037068017E-8</v>
-      </c>
-      <c r="I2">
-        <v>8.0648882017086976E-8</v>
-      </c>
-      <c r="J2">
-        <v>8.2305144921690498E-8</v>
-      </c>
-      <c r="K2">
-        <v>8.3320119914631618E-8</v>
-      </c>
-      <c r="L2">
-        <v>8.3930176919544408E-8</v>
-      </c>
-      <c r="M2">
-        <v>8.4304025871340116E-8</v>
-      </c>
-      <c r="N2">
-        <v>8.4528730237565242E-8</v>
-      </c>
-      <c r="O2">
-        <v>8.4666431421354105E-8</v>
-      </c>
-      <c r="P2">
-        <v>8.4749197437616886E-8</v>
-      </c>
-      <c r="Q2">
-        <v>8.4799917310363071E-8</v>
-      </c>
-      <c r="R2">
-        <v>8.4830402702351648E-8</v>
-      </c>
-      <c r="S2">
-        <v>8.4849084758253923E-8</v>
-      </c>
-      <c r="T2">
-        <v>8.486031344290268E-8</v>
-      </c>
-      <c r="U2">
-        <v>8.4867194716231609E-8</v>
-      </c>
-      <c r="V2">
-        <v>8.4871330630065245E-8</v>
-      </c>
-      <c r="W2">
-        <v>8.4873858163803106E-8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-9.031835694723031E-9</v>
-      </c>
-      <c r="E3">
-        <v>-1.3202879149628711E-8</v>
-      </c>
-      <c r="F3">
-        <v>-1.4849249624547499E-8</v>
-      </c>
-      <c r="G3">
-        <v>-1.5729259244796096E-8</v>
-      </c>
-      <c r="H3">
-        <v>-1.6076611749744722E-8</v>
-      </c>
-      <c r="I3">
-        <v>-1.626227674599035E-8</v>
-      </c>
-      <c r="J3">
-        <v>-1.6335561374774734E-8</v>
-      </c>
-      <c r="K3">
-        <v>-1.6374733194850106E-8</v>
-      </c>
-      <c r="L3">
-        <v>-1.6390194533046339E-8</v>
-      </c>
-      <c r="M3">
-        <v>-1.6398459053177446E-8</v>
-      </c>
-      <c r="N3">
-        <v>-1.640172126259469E-8</v>
-      </c>
-      <c r="O3">
-        <v>-1.6403465047831869E-8</v>
-      </c>
-      <c r="P3">
-        <v>-1.6404153143852712E-8</v>
-      </c>
-      <c r="Q3">
-        <v>-1.6404521057390856E-8</v>
-      </c>
-      <c r="R3">
-        <v>-1.6404666332784458E-8</v>
-      </c>
-      <c r="S3">
-        <v>-1.6404743855706731E-8</v>
-      </c>
-      <c r="T3">
-        <v>-1.6404774608601518E-8</v>
-      </c>
-      <c r="U3">
-        <v>-1.6404790785905547E-8</v>
-      </c>
-      <c r="V3">
-        <v>-1.6404797352929954E-8</v>
-      </c>
-      <c r="W3">
-        <v>-1.6404800556356495E-8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-2.7593328711520186E-8</v>
       </c>
       <c r="D4">
-        <v>-2.7593328711520186E-8</v>
+        <v>-3.8641823805050887E-8</v>
       </c>
       <c r="E4">
-        <v>-3.8641823805050887E-8</v>
+        <v>-4.089442901716989E-8</v>
       </c>
       <c r="F4">
-        <v>-4.089442901716989E-8</v>
+        <v>-4.2809501665407286E-8</v>
       </c>
       <c r="G4">
-        <v>-4.2809501665407286E-8</v>
+        <v>-4.3199953398690816E-8</v>
       </c>
       <c r="H4">
-        <v>-4.3199953398690816E-8</v>
+        <v>-4.3531899190189721E-8</v>
       </c>
       <c r="I4">
-        <v>-4.3531899190189721E-8</v>
+        <v>-4.3599577343294235E-8</v>
       </c>
       <c r="J4">
-        <v>-4.3599577343294235E-8</v>
+        <v>-4.3657114729154537E-8</v>
       </c>
       <c r="K4">
-        <v>-4.3657114729154537E-8</v>
+        <v>-4.3668845517195213E-8</v>
       </c>
       <c r="L4">
-        <v>-4.3668845517195213E-8</v>
+        <v>-4.3678818585060114E-8</v>
       </c>
       <c r="M4">
-        <v>-4.3678818585060114E-8</v>
+        <v>-4.3680851960094979E-8</v>
       </c>
       <c r="N4">
-        <v>-4.3680851960094979E-8</v>
+        <v>-4.3682580689260104E-8</v>
       </c>
       <c r="O4">
-        <v>-4.3682580689260104E-8</v>
+        <v>-4.3682933226357521E-8</v>
       </c>
       <c r="P4">
-        <v>-4.3682933226357521E-8</v>
+        <v>-4.3683232906916029E-8</v>
       </c>
       <c r="Q4">
-        <v>-4.3683232906916029E-8</v>
+        <v>-4.3683293932192772E-8</v>
       </c>
       <c r="R4">
-        <v>-4.3683293932192772E-8</v>
+        <v>-4.3683345827703711E-8</v>
       </c>
       <c r="S4">
-        <v>-4.3683345827703711E-8</v>
+        <v>-4.3683356399011489E-8</v>
       </c>
       <c r="T4">
-        <v>-4.3683356399011489E-8</v>
+        <v>-4.36833655287773E-8</v>
       </c>
       <c r="U4">
-        <v>-4.36833655287773E-8</v>
+        <v>-4.3683367130490596E-8</v>
       </c>
       <c r="V4">
-        <v>-4.3683367130490596E-8</v>
-      </c>
-      <c r="W4">
         <v>-4.368336857203257E-8</v>
       </c>
     </row>
@@ -2051,55 +1939,43 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="B3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
     </row>

--- a/test_files/estimation_tests/3-genes_3-edges_artificial-data_Sigmoid_estimation_1_output.xlsx
+++ b/test_files/estimation_tests/3-genes_3-edges_artificial-data_Sigmoid_estimation_1_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20610" windowHeight="11640" tabRatio="644" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20610" windowHeight="11640" tabRatio="644" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -22,12 +22,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="28">
   <si>
     <t>alpha</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Strain</t>
   </si>
   <si>
-    <t>Deletion</t>
-  </si>
-  <si>
     <t>wt</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>production_rate</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>estimate_params</t>
   </si>
   <si>
@@ -111,6 +105,12 @@
   </si>
   <si>
     <t>degradation_rate</t>
+  </si>
+  <si>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -551,10 +551,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -562,7 +562,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4">
         <v>1.6</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -704,15 +704,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -749,21 +749,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1.1766554941657421E-7</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -825,15 +825,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4">
         <v>0.8</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -939,7 +939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -947,7 +947,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="7">
         <v>5</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1189,21 +1189,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -1280,16 +1280,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4">
         <v>0.1</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -1364,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1373,27 +1373,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1401,7 +1389,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1409,7 +1397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1417,7 +1405,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1425,7 +1413,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1433,7 +1421,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1441,87 +1429,87 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="9">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="9">
         <v>5</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>10</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8">
         <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1610,15 +1598,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1626,7 +1614,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1634,7 +1622,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1662,7 +1650,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1730,7 +1718,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1798,7 +1786,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1866,7 +1854,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1949,15 +1937,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1965,7 +1953,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>1.6</v>
@@ -1973,7 +1961,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>2</v>
